--- a/target/test-classes/testData/testdata.xlsx
+++ b/target/test-classes/testData/testdata.xlsx
@@ -8,15 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\techintrend.ca\eclipse-workspace\API_Batch\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEE921B-9178-4C7C-8F76-0288D62FFC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E95424A-50AA-4F0C-B6D8-16DE1EB3AC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="validateCreateCustomerWithValid" sheetId="4" r:id="rId1"/>
-    <sheet name="test_suite" sheetId="3" r:id="rId2"/>
-    <sheet name="AddCustomerTest" sheetId="1" r:id="rId3"/>
-    <sheet name="OpenAccountTest" sheetId="2" r:id="rId4"/>
+    <sheet name="TestDataSheet" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,103 +25,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>postcode</t>
-  </si>
-  <si>
-    <t>Raman</t>
-  </si>
-  <si>
-    <t>Arora</t>
-  </si>
-  <si>
-    <t>A234wd</t>
-  </si>
-  <si>
-    <t>alerttext</t>
-  </si>
-  <si>
-    <t>Customer added successfully</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>Raman Arora</t>
-  </si>
-  <si>
-    <t>Rupee</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Ishita</t>
-  </si>
-  <si>
-    <t>Rohit</t>
-  </si>
-  <si>
-    <t>Sehgal</t>
-  </si>
-  <si>
-    <t>TCID</t>
-  </si>
-  <si>
-    <t>Runmode</t>
-  </si>
-  <si>
-    <t>BankManagerLoginTest</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>AddCustomerTest</t>
-  </si>
-  <si>
-    <t>OpenAccountTest</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>runmode</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>imranbharucha@gmail.com</t>
   </si>
   <si>
-    <t>imran as a admin</t>
-  </si>
-  <si>
-    <t>farheenpatel@gmail.com</t>
-  </si>
-  <si>
-    <t>farheen as a customer</t>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>validateDeleteCusotmerAPI</t>
+  </si>
+  <si>
+    <t>endpoint</t>
+  </si>
+  <si>
+    <t>customerId</t>
+  </si>
+  <si>
+    <t>endOfTestData</t>
+  </si>
+  <si>
+    <t>cus_RkWS4emlbNsUHn</t>
+  </si>
+  <si>
+    <t>validateCreateCustomerAPIWithValidData</t>
+  </si>
+  <si>
+    <t>arguments</t>
+  </si>
+  <si>
+    <t>email:imranbharucha@gmail.com,description:Test case data 01,balance:10000</t>
+  </si>
+  <si>
+    <t>expectedStatusCode</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>expectedEmail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,20 +79,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -158,16 +115,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,222 +404,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAEAD23-F92E-4F40-90A8-4AD1B93599FB}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355F3FB7-40BA-43ED-A5BD-2DE0F70CFF46}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{6BC5B86C-15CC-44B4-9138-C93D4A27224F}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{743475E9-891A-4BA5-AB60-1A0CED126F0D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
